--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26329,7 +26331,7 @@
         <v>7514.565735773333</v>
       </c>
       <c r="H2" t="n">
-        <v>7514.565735773335</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="I2" t="n">
         <v>7514.565735773333</v>
@@ -26528,16 +26530,16 @@
         <v>-29870.31713211333</v>
       </c>
       <c r="E6" t="n">
-        <v>3757.282867886665</v>
+        <v>3757.282867886666</v>
       </c>
       <c r="F6" t="n">
-        <v>3757.282867886665</v>
+        <v>3757.282867886666</v>
       </c>
       <c r="G6" t="n">
-        <v>3757.282867886665</v>
+        <v>3757.282867886666</v>
       </c>
       <c r="H6" t="n">
-        <v>3757.282867886668</v>
+        <v>3757.282867886667</v>
       </c>
       <c r="I6" t="n">
         <v>3757.282867886666</v>
@@ -26546,22 +26548,22 @@
         <v>3757.282867886666</v>
       </c>
       <c r="K6" t="n">
-        <v>3757.282867886665</v>
+        <v>3757.282867886666</v>
       </c>
       <c r="L6" t="n">
+        <v>3757.282867886668</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3757.282867886666</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3757.282867886666</v>
+      </c>
+      <c r="O6" t="n">
         <v>3757.282867886667</v>
       </c>
-      <c r="M6" t="n">
-        <v>3757.282867886665</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3757.282867886665</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3757.282867886665</v>
-      </c>
       <c r="P6" t="n">
-        <v>3757.282867886667</v>
+        <v>3757.282867886668</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60553.53897030324</v>
+        <v>-72497.7675513734</v>
       </c>
     </row>
     <row r="7">
@@ -26337,25 +26337,25 @@
         <v>7514.565735773333</v>
       </c>
       <c r="J2" t="n">
-        <v>7514.565735773333</v>
+        <v>7514.565735773334</v>
       </c>
       <c r="K2" t="n">
         <v>7514.565735773333</v>
       </c>
       <c r="L2" t="n">
-        <v>7514.565735773334</v>
+        <v>7514.565735773333</v>
       </c>
       <c r="M2" t="n">
         <v>7514.565735773333</v>
       </c>
       <c r="N2" t="n">
+        <v>7514.565735773334</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7514.565735773334</v>
+      </c>
+      <c r="P2" t="n">
         <v>7514.565735773333</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7514.565735773333</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7514.565735773334</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29870.31713211333</v>
+        <v>-31297.91062625824</v>
       </c>
       <c r="C6" t="n">
-        <v>-29870.31713211333</v>
+        <v>-31297.91062625824</v>
       </c>
       <c r="D6" t="n">
-        <v>-29870.31713211333</v>
+        <v>-31297.91062625824</v>
       </c>
       <c r="E6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741765</v>
       </c>
       <c r="F6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741764</v>
       </c>
       <c r="G6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741764</v>
       </c>
       <c r="H6" t="n">
-        <v>3757.282867886667</v>
+        <v>2329.689373741765</v>
       </c>
       <c r="I6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741764</v>
       </c>
       <c r="J6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741766</v>
       </c>
       <c r="K6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741764</v>
       </c>
       <c r="L6" t="n">
-        <v>3757.282867886668</v>
+        <v>2329.689373741764</v>
       </c>
       <c r="M6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741764</v>
       </c>
       <c r="N6" t="n">
-        <v>3757.282867886666</v>
+        <v>2329.689373741766</v>
       </c>
       <c r="O6" t="n">
-        <v>3757.282867886667</v>
+        <v>2329.689373741766</v>
       </c>
       <c r="P6" t="n">
-        <v>3757.282867886668</v>
+        <v>2329.689373741765</v>
       </c>
     </row>
   </sheetData>
